--- a/tools/luban/Datas/Shop.xlsx
+++ b/tools/luban/Datas/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE27245-E128-44CD-BADD-D2A47FE6048D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC0A26D-23C8-432E-8561-5F82C7947DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>cost_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +481,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -591,12 +599,24 @@
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>

--- a/tools/luban/Datas/Shop.xlsx
+++ b/tools/luban/Datas/Shop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC0A26D-23C8-432E-8561-5F82C7947DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FD8A37-ABEB-46BD-AA20-B0ED6EEFA403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -481,7 +481,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,7 +598,9 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="3">
         <v>1002</v>
       </c>

--- a/tools/luban/Datas/Shop.xlsx
+++ b/tools/luban/Datas/Shop.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FD8A37-ABEB-46BD-AA20-B0ED6EEFA403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011B8A84-A54B-49ED-BA56-661FE6C71CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -481,12 +481,12 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +511,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -536,7 +536,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -549,7 +549,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -574,7 +574,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -597,10 +597,8 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="6" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
@@ -622,7 +620,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -633,7 +631,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -644,7 +642,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -655,7 +653,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -666,7 +664,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
